--- a/01-beginner/016-ranges-colon-notation.xlsx
+++ b/01-beginner/016-ranges-colon-notation.xlsx
@@ -1,39 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toddmcleod/Documents/microsoft-excel/01-beginner/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recording-PC\Documents\microsoft-excel\01-beginner\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="260" yWindow="460" windowWidth="37080" windowHeight="23300" tabRatio="675"/>
+    <workbookView xWindow="263" yWindow="458" windowWidth="37080" windowHeight="23303" tabRatio="675"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
+    <sheet name="Annual Sales" sheetId="9" r:id="rId1"/>
+    <sheet name="Live Demo" sheetId="11" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Jan">Sheet1!$B$4:$B$7</definedName>
+    <definedName name="TaxTotal">'Annual Sales'!$N$9</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Total</t>
   </si>
@@ -93,17 +94,21 @@
   </si>
   <si>
     <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Net Income</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.000%"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,16 +123,66 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -135,270 +190,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -411,46 +256,185 @@
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:O9" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" dataCellStyle="Currency">
-  <autoFilter ref="A3:O9">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
-    <filterColumn colId="7" hiddenButton="1"/>
-    <filterColumn colId="8" hiddenButton="1"/>
-    <filterColumn colId="9" hiddenButton="1"/>
-    <filterColumn colId="10" hiddenButton="1"/>
-    <filterColumn colId="11" hiddenButton="1"/>
-    <filterColumn colId="12" hiddenButton="1"/>
-    <filterColumn colId="13" hiddenButton="1"/>
-    <filterColumn colId="14" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="15">
-    <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="1-Jan" dataDxfId="13" dataCellStyle="Currency"/>
-    <tableColumn id="3" name="1-Feb" dataDxfId="12" dataCellStyle="Currency"/>
-    <tableColumn id="4" name="1-Mar" dataDxfId="11" dataCellStyle="Currency"/>
-    <tableColumn id="5" name="1-Apr" dataDxfId="10" dataCellStyle="Currency"/>
-    <tableColumn id="6" name="1-May" dataDxfId="9" dataCellStyle="Currency"/>
-    <tableColumn id="7" name="1-Jun" dataDxfId="8" dataCellStyle="Currency"/>
-    <tableColumn id="8" name="1-Jul" dataDxfId="7" dataCellStyle="Currency"/>
-    <tableColumn id="9" name="1-Aug" dataDxfId="6" dataCellStyle="Currency"/>
-    <tableColumn id="10" name="1-Sep" dataDxfId="5" dataCellStyle="Currency"/>
-    <tableColumn id="11" name="1-Oct" dataDxfId="4" dataCellStyle="Currency"/>
-    <tableColumn id="12" name="1-Nov" dataDxfId="3" dataCellStyle="Currency"/>
-    <tableColumn id="13" name="1-Dec" dataDxfId="2" dataCellStyle="Currency"/>
-    <tableColumn id="14" name="Total" dataDxfId="1">
-      <calculatedColumnFormula>B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="15" name="Taxes" dataDxfId="0" dataCellStyle="Currency"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>442913</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63F3EE50-6E04-4538-B7AC-55E60593FD69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="3400426"/>
+          <a:ext cx="7339013" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="41275" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="228600">
+            <a:schemeClr val="accent3">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>Calculate the tax owed</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" baseline="0"/>
+            <a:t> for each month, putting the results in B9:M9</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7270C1F4-37F4-4565-AB2B-CBDCACE6008A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2305050" y="5086351"/>
+          <a:ext cx="6438900" cy="1762124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="41275" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="228600">
+            <a:schemeClr val="accent3">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>Name cell </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" baseline="0"/>
+            <a:t>N9 "TaxTotal"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" baseline="0"/>
+            <a:t>Use the named reference "TaxTotal" in a formula to calculate net income (earnings - (expenses + taxes))</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -716,337 +700,437 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:O13"/>
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A3:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="14">
         <v>24</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="14">
         <v>29</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="14">
         <v>41</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="14">
         <v>43</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="14">
         <v>44</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="14">
         <v>36</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="14">
         <v>26</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="14">
         <v>42</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="14">
         <v>27</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="14">
         <v>47</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="14">
         <v>20</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="14">
         <v>25</v>
       </c>
-      <c r="N4" s="4">
-        <f t="shared" ref="N4:N9" si="0">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4</f>
+      <c r="N4" s="15">
+        <f>B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4</f>
         <v>404</v>
       </c>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="5">
         <v>21</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="5">
         <v>46</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="5">
         <v>38</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="5">
         <v>45</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="5">
         <v>34</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="5">
         <v>22</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="5">
         <v>24</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="5">
         <v>24</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="5">
         <v>30</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="5">
         <v>24</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="5">
         <v>30</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="5">
         <v>26</v>
       </c>
-      <c r="N5" s="4">
-        <f t="shared" si="0"/>
+      <c r="N5" s="20">
+        <f t="shared" ref="N5:N9" si="0">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5</f>
         <v>364</v>
       </c>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>32</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>22</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>46</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>25</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>30</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>44</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>46</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <v>21</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="3">
         <v>49</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="3">
         <v>42</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="3">
         <v>31</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="3">
         <v>37</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="21">
         <f t="shared" si="0"/>
         <v>425</v>
       </c>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="5">
         <v>31</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="5">
         <v>33</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="5">
         <v>30</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="5">
         <v>29</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="5">
         <v>48</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="5">
         <v>23</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="5">
         <v>29</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="5">
         <v>21</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="5">
         <v>24</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="5">
         <v>40</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="5">
         <v>41</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="5">
         <v>48</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="20">
         <f t="shared" si="0"/>
         <v>397</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="17">
         <f>B4+B5+B6+B7</f>
         <v>108</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="17">
         <f t="shared" ref="C8:M8" si="1">C4+C5+C6+C7</f>
         <v>130</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="17">
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="17">
         <f t="shared" si="1"/>
         <v>142</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="17">
         <f t="shared" si="1"/>
         <v>156</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="17">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="17">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="17">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="17">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="17">
         <f t="shared" si="1"/>
         <v>153</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="17">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="17">
         <f t="shared" si="1"/>
         <v>136</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="19">
         <f t="shared" si="0"/>
         <v>1590</v>
       </c>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="7">
+        <f>B8*$B$13</f>
+        <v>8.7750000000000004</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" ref="C9:N9" si="2">C8*$B$13</f>
+        <v>10.5625</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="2"/>
+        <v>12.59375</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="2"/>
+        <v>11.5375</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="2"/>
+        <v>12.675000000000001</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="2"/>
+        <v>10.15625</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="2"/>
+        <v>10.15625</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="2"/>
+        <v>8.7750000000000004</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="2"/>
+        <v>10.5625</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="2"/>
+        <v>12.43125</v>
+      </c>
+      <c r="L9" s="7">
+        <f t="shared" si="2"/>
+        <v>9.9124999999999996</v>
+      </c>
+      <c r="M9" s="7">
+        <f t="shared" si="2"/>
+        <v>11.05</v>
+      </c>
+      <c r="N9" s="7">
+        <f t="shared" si="2"/>
+        <v>129.1875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="1">
         <v>8.1250000000000003E-2</v>
       </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="18">
+        <f>N8-TaxTotal</f>
+        <v>1460.8125</v>
+      </c>
+      <c r="N14" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="B3:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>